--- a/Firmware/MicroCode/X16 Microcode.xlsx
+++ b/Firmware/MicroCode/X16 Microcode.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Libraries\Documents\MAX7000CPU-GEN2.5\Firmware\MicroCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FCBF5A-0ED0-42C1-9C55-64E7FFDFEE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07720F1B-9C64-43DA-AD9F-F66A6F9FB277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18705" yWindow="7965" windowWidth="28800" windowHeight="12555" xr2:uid="{3061861A-EC9A-EA49-8D55-92F43BFE0D9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{3061861A-EC9A-EA49-8D55-92F43BFE0D9E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MicroCode" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="67">
   <si>
     <t>Command Name</t>
   </si>
@@ -201,12 +202,6 @@
     <t>MemWriteControlL</t>
   </si>
   <si>
-    <t>PortALatch</t>
-  </si>
-  <si>
-    <t>PortBLatch</t>
-  </si>
-  <si>
     <t>ALU_Regs</t>
   </si>
   <si>
@@ -214,6 +209,33 @@
   </si>
   <si>
     <t>XXXXXXXX</t>
+  </si>
+  <si>
+    <t>MEN</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>STK</t>
+  </si>
+  <si>
+    <t>LDM</t>
+  </si>
+  <si>
+    <t>LDC</t>
+  </si>
+  <si>
+    <t>11111110</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>PortCBusEnable</t>
+  </si>
+  <si>
+    <t>PortDBusEnable</t>
   </si>
 </sst>
 </file>
@@ -298,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -306,6 +328,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,6 +346,88 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259E4DA6-6778-0F38-D020-3B067F9E15E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="409575"/>
+          <a:ext cx="6905625" cy="3495675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Port(A/B)Latch has</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> been replaced with Port(C/D)BusEnable</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -660,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA06146-33F3-F747-834E-F5D5B9EC84C7}">
-  <dimension ref="A1:AA58"/>
+  <dimension ref="A1:AD98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -846,16 +953,16 @@
         <v>6</v>
       </c>
       <c r="X2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>56</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -865,7 +972,7 @@
       <c r="B3">
         <v>10111111</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D3">
@@ -893,12 +1000,12 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>1</v>
       </c>
       <c r="O3">
@@ -949,7 +1056,7 @@
       </c>
       <c r="C4" t="str">
         <f>C3</f>
-        <v>XXXXXXXX</v>
+        <v>00000000</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -981,8 +1088,8 @@
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="N4">
-        <v>1</v>
+      <c r="N4" s="2">
+        <v>0</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -1032,7 +1139,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ref="C5" si="1">C4</f>
-        <v>XXXXXXXX</v>
+        <v>00000000</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1059,12 +1166,12 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5">
@@ -1115,7 +1222,7 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ref="C6" si="2">C5</f>
-        <v>XXXXXXXX</v>
+        <v>00000000</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1139,15 +1246,15 @@
         <v>12</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>0</v>
       </c>
       <c r="O6">
@@ -1198,7 +1305,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ref="C7" si="3">C6</f>
-        <v>XXXXXXXX</v>
+        <v>00000000</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -1222,7 +1329,7 @@
         <v>12</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1230,8 +1337,8 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>0</v>
+      <c r="N7" s="4">
+        <v>1</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -1281,7 +1388,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ref="C8" si="4">C7</f>
-        <v>XXXXXXXX</v>
+        <v>00000000</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1308,12 +1415,12 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>1</v>
       </c>
       <c r="O8">
@@ -1363,7 +1470,7 @@
       </c>
       <c r="C9" t="str">
         <f>C8</f>
-        <v>XXXXXXXX</v>
+        <v>00000000</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1390,12 +1497,12 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>1</v>
       </c>
       <c r="O9">
@@ -1446,7 +1553,7 @@
       </c>
       <c r="C10" t="str">
         <f>C9</f>
-        <v>XXXXXXXX</v>
+        <v>00000000</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1473,12 +1580,12 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>1</v>
       </c>
       <c r="O10">
@@ -1587,16 +1694,16 @@
         <v>6</v>
       </c>
       <c r="X12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="AA12" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA12" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -1606,7 +1713,7 @@
       <c r="B13" s="4">
         <v>10000010</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="4">
@@ -1634,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="4">
         <v>1</v>
@@ -1691,7 +1798,7 @@
       </c>
       <c r="C14" s="2" t="str">
         <f>C13</f>
-        <v>XXXXXXXX</v>
+        <v>00000000</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -1724,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>1</v>
@@ -1775,7 +1882,7 @@
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>XXXXXXXX</v>
+        <v>00000000</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -1802,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
@@ -1859,7 +1966,7 @@
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>XXXXXXXX</v>
+        <v>00000000</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -1883,10 +1990,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -1943,7 +2050,7 @@
       </c>
       <c r="C17" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>XXXXXXXX</v>
+        <v>00000000</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
@@ -1967,7 +2074,7 @@
         <v>12</v>
       </c>
       <c r="K17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4">
         <v>1</v>
@@ -1976,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="4">
         <v>1</v>
@@ -2027,7 +2134,7 @@
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>XXXXXXXX</v>
+        <v>00000000</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
@@ -2054,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -2102,16 +2209,16 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
-        <f>A18</f>
+        <f t="shared" ref="A19:C20" si="9">A18</f>
         <v>JMP</v>
       </c>
       <c r="B19" s="4">
-        <f>B18</f>
+        <f t="shared" si="9"/>
         <v>10000010</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>C18</f>
-        <v>XXXXXXXX</v>
+        <f t="shared" si="9"/>
+        <v>00000000</v>
       </c>
       <c r="D19" s="4">
         <v>6</v>
@@ -2138,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
@@ -2186,16 +2293,16 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
-        <f>A19</f>
+        <f t="shared" si="9"/>
         <v>JMP</v>
       </c>
       <c r="B20" s="2">
-        <f>B19</f>
+        <f t="shared" si="9"/>
         <v>10000010</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>C19</f>
-        <v>XXXXXXXX</v>
+        <f t="shared" si="9"/>
+        <v>00000000</v>
       </c>
       <c r="D20" s="2">
         <v>7</v>
@@ -2222,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -2337,16 +2444,16 @@
         <v>6</v>
       </c>
       <c r="X22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Y22" s="2" t="s">
+      <c r="AA22" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA22" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -2356,8 +2463,8 @@
       <c r="B23" s="4">
         <v>10000101</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>59</v>
+      <c r="C23" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -2384,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="4">
         <v>1</v>
@@ -2474,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>1</v>
@@ -2516,15 +2623,15 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
-        <f t="shared" ref="A25:C28" si="9">A24</f>
+        <f t="shared" ref="A25:C28" si="10">A24</f>
         <v>JPE</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10000101</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D25" s="4">
@@ -2552,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="4">
         <v>0</v>
@@ -2600,15 +2707,15 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
-        <f t="shared" ref="A26:B26" si="10">A25</f>
+        <f t="shared" ref="A26:B26" si="11">A25</f>
         <v>JPE</v>
       </c>
       <c r="B26" s="2">
+        <f t="shared" si="11"/>
+        <v>10000101</v>
+      </c>
+      <c r="C26" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>10000101</v>
-      </c>
-      <c r="C26" s="2" t="str">
-        <f t="shared" si="9"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D26" s="2">
@@ -2633,10 +2740,10 @@
         <v>12</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -2684,15 +2791,15 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
-        <f t="shared" ref="A27:B27" si="11">A26</f>
+        <f t="shared" ref="A27:B27" si="12">A26</f>
         <v>JPE</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10000101</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D27" s="4">
@@ -2717,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="K27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="4">
         <v>1</v>
@@ -2726,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="4">
         <v>1</v>
@@ -2768,15 +2875,15 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
-        <f t="shared" ref="A28:B28" si="12">A27</f>
+        <f t="shared" ref="A28:B28" si="13">A27</f>
         <v>JPE</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10000101</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D28" s="2">
@@ -2804,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -2852,15 +2959,15 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
-        <f>A28</f>
+        <f t="shared" ref="A29:C30" si="14">A28</f>
         <v>JPE</v>
       </c>
       <c r="B29" s="4">
-        <f>B28</f>
+        <f t="shared" si="14"/>
         <v>10000101</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>C28</f>
+        <f t="shared" si="14"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D29" s="4">
@@ -2888,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="4">
         <v>0</v>
@@ -2936,15 +3043,15 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
-        <f>A29</f>
+        <f t="shared" si="14"/>
         <v>JPE</v>
       </c>
       <c r="B30" s="2">
-        <f>B29</f>
+        <f t="shared" si="14"/>
         <v>10000101</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>C29</f>
+        <f t="shared" si="14"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D30" s="2">
@@ -2972,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -3025,8 +3132,8 @@
       <c r="B32" s="4">
         <v>10000101</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>59</v>
+      <c r="C32" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -3053,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="4">
         <v>1</v>
@@ -3143,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
         <v>1</v>
@@ -3185,15 +3292,15 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
-        <f t="shared" ref="A34:C34" si="13">A33</f>
+        <f t="shared" ref="A34:C34" si="15">A33</f>
         <v>JPE</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10000101</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D34" s="4">
@@ -3221,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="4">
         <v>0</v>
@@ -3269,15 +3376,15 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
-        <f t="shared" ref="A35:C35" si="14">A34</f>
+        <f t="shared" ref="A35:C35" si="16">A34</f>
         <v>JPE</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10000101</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D35" s="2">
@@ -3302,10 +3409,10 @@
         <v>12</v>
       </c>
       <c r="K35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
@@ -3353,15 +3460,15 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
-        <f t="shared" ref="A36:C36" si="15">A35</f>
+        <f t="shared" ref="A36:C36" si="17">A35</f>
         <v>JPE</v>
       </c>
       <c r="B36" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10000101</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D36" s="4">
@@ -3386,7 +3493,7 @@
         <v>12</v>
       </c>
       <c r="K36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="4">
         <v>1</v>
@@ -3395,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="4">
         <v>1</v>
@@ -3437,15 +3544,15 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
-        <f t="shared" ref="A37:C37" si="16">A36</f>
+        <f t="shared" ref="A37:C37" si="18">A36</f>
         <v>JPE</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10000101</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D37" s="2">
@@ -3473,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
@@ -3521,15 +3628,15 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
-        <f>A37</f>
+        <f t="shared" ref="A38:C39" si="19">A37</f>
         <v>JPE</v>
       </c>
       <c r="B38" s="4">
-        <f>B37</f>
+        <f t="shared" si="19"/>
         <v>10000101</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f>C37</f>
+        <f t="shared" si="19"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D38" s="4">
@@ -3557,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4">
         <v>0</v>
@@ -3605,15 +3712,15 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
-        <f>A38</f>
+        <f t="shared" si="19"/>
         <v>JPE</v>
       </c>
       <c r="B39" s="2">
-        <f>B38</f>
+        <f t="shared" si="19"/>
         <v>10000101</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>C38</f>
+        <f t="shared" si="19"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D39" s="2">
@@ -3641,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="2">
         <v>0</v>
@@ -3756,16 +3863,16 @@
         <v>6</v>
       </c>
       <c r="X41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Y41" s="2" t="s">
+      <c r="AA41" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="Z41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA41" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -3775,8 +3882,8 @@
       <c r="B42" s="4">
         <v>10000100</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>59</v>
+      <c r="C42" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
@@ -3803,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="4">
         <v>1</v>
@@ -3893,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="2">
         <v>1</v>
@@ -3935,15 +4042,15 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
-        <f t="shared" ref="A44:C44" si="17">A43</f>
+        <f t="shared" ref="A44:C44" si="20">A43</f>
         <v>JPC</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10000100</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D44" s="4">
@@ -3971,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="4">
         <v>0</v>
@@ -4019,15 +4126,15 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
-        <f t="shared" ref="A45:C45" si="18">A44</f>
+        <f t="shared" ref="A45:C45" si="21">A44</f>
         <v>JPC</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>10000100</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D45" s="2">
@@ -4052,10 +4159,10 @@
         <v>12</v>
       </c>
       <c r="K45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="2">
         <v>0</v>
@@ -4103,15 +4210,15 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
-        <f t="shared" ref="A46:C46" si="19">A45</f>
+        <f t="shared" ref="A46:C46" si="22">A45</f>
         <v>JPC</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>10000100</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D46" s="4">
@@ -4136,7 +4243,7 @@
         <v>12</v>
       </c>
       <c r="K46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="4">
         <v>1</v>
@@ -4145,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="4">
         <v>1</v>
@@ -4187,15 +4294,15 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
-        <f t="shared" ref="A47:C47" si="20">A46</f>
+        <f t="shared" ref="A47:C47" si="23">A46</f>
         <v>JPC</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10000100</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D47" s="2">
@@ -4223,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="2">
         <v>0</v>
@@ -4271,15 +4378,15 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
-        <f>A47</f>
+        <f t="shared" ref="A48:C49" si="24">A47</f>
         <v>JPC</v>
       </c>
       <c r="B48" s="4">
-        <f>B47</f>
+        <f t="shared" si="24"/>
         <v>10000100</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f>C47</f>
+        <f t="shared" si="24"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D48" s="4">
@@ -4307,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4">
         <v>0</v>
@@ -4355,11 +4462,11 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="str">
-        <f>A48</f>
+        <f t="shared" si="24"/>
         <v>JPC</v>
       </c>
       <c r="B49" s="2">
-        <f>B48</f>
+        <f t="shared" si="24"/>
         <v>10000100</v>
       </c>
       <c r="C49" s="2" t="str">
@@ -4391,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -4444,8 +4551,8 @@
       <c r="B51" s="4">
         <v>10000100</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>59</v>
+      <c r="C51" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -4472,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="4">
         <v>1</v>
@@ -4562,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="N52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="2">
         <v>1</v>
@@ -4604,15 +4711,15 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
-        <f t="shared" ref="A53:C53" si="21">A52</f>
+        <f t="shared" ref="A53:C53" si="25">A52</f>
         <v>JPC</v>
       </c>
       <c r="B53" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10000100</v>
       </c>
       <c r="C53" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D53" s="4">
@@ -4640,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" s="4">
         <v>0</v>
@@ -4688,15 +4795,15 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="str">
-        <f t="shared" ref="A54:C54" si="22">A53</f>
+        <f t="shared" ref="A54:C54" si="26">A53</f>
         <v>JPC</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>10000100</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D54" s="2">
@@ -4721,10 +4828,10 @@
         <v>12</v>
       </c>
       <c r="K54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" s="2">
         <v>0</v>
@@ -4772,15 +4879,15 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
-        <f t="shared" ref="A55:C55" si="23">A54</f>
+        <f t="shared" ref="A55:C55" si="27">A54</f>
         <v>JPC</v>
       </c>
       <c r="B55" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>10000100</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D55" s="4">
@@ -4805,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="K55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="4">
         <v>1</v>
@@ -4814,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="4">
         <v>1</v>
@@ -4856,15 +4963,15 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
-        <f t="shared" ref="A56:C56" si="24">A55</f>
+        <f t="shared" ref="A56:C56" si="28">A55</f>
         <v>JPC</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10000100</v>
       </c>
       <c r="C56" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D56" s="2">
@@ -4892,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="2">
         <v>0</v>
@@ -4940,15 +5047,15 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
-        <f>A56</f>
+        <f t="shared" ref="A57:C58" si="29">A56</f>
         <v>JPC</v>
       </c>
       <c r="B57" s="4">
-        <f>B56</f>
+        <f t="shared" si="29"/>
         <v>10000100</v>
       </c>
       <c r="C57" s="4" t="str">
-        <f>C56</f>
+        <f t="shared" si="29"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D57" s="4">
@@ -4976,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="4">
         <v>0</v>
@@ -5024,15 +5131,15 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="str">
-        <f>A57</f>
+        <f t="shared" si="29"/>
         <v>JPC</v>
       </c>
       <c r="B58" s="2">
-        <f>B57</f>
+        <f t="shared" si="29"/>
         <v>10000100</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f>C57</f>
+        <f t="shared" si="29"/>
         <v>XXXXXXXX</v>
       </c>
       <c r="D58" s="2">
@@ -5060,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="2">
         <v>0</v>
@@ -5104,12 +5211,3018 @@
       </c>
       <c r="AA58" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA60" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="4">
+        <v>10110000</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+      <c r="L61" s="4">
+        <v>1</v>
+      </c>
+      <c r="M61" s="4">
+        <v>1</v>
+      </c>
+      <c r="N61" s="4">
+        <v>1</v>
+      </c>
+      <c r="O61" s="4">
+        <v>1</v>
+      </c>
+      <c r="P61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>0</v>
+      </c>
+      <c r="R61" s="4">
+        <v>1</v>
+      </c>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4">
+        <v>1</v>
+      </c>
+      <c r="U61" s="4">
+        <v>0</v>
+      </c>
+      <c r="V61" s="4">
+        <v>0</v>
+      </c>
+      <c r="W61" s="4">
+        <v>1</v>
+      </c>
+      <c r="X61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="str">
+        <f>A61</f>
+        <v>MEN</v>
+      </c>
+      <c r="B62" s="2">
+        <f>B61</f>
+        <v>10110000</v>
+      </c>
+      <c r="C62" s="2" t="str">
+        <f>C61</f>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
+        <v>1</v>
+      </c>
+      <c r="P62" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0</v>
+      </c>
+      <c r="R62" s="2">
+        <v>1</v>
+      </c>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2">
+        <v>1</v>
+      </c>
+      <c r="U62" s="2">
+        <v>0</v>
+      </c>
+      <c r="V62" s="2">
+        <v>0</v>
+      </c>
+      <c r="W62" s="2">
+        <v>1</v>
+      </c>
+      <c r="X62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="str">
+        <f t="shared" ref="A63:C63" si="30">A62</f>
+        <v>MEN</v>
+      </c>
+      <c r="B63" s="4">
+        <f t="shared" si="30"/>
+        <v>10110000</v>
+      </c>
+      <c r="C63" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0</v>
+      </c>
+      <c r="N63" s="4">
+        <v>0</v>
+      </c>
+      <c r="O63" s="4">
+        <v>1</v>
+      </c>
+      <c r="P63" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>0</v>
+      </c>
+      <c r="R63" s="4">
+        <v>1</v>
+      </c>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4">
+        <v>1</v>
+      </c>
+      <c r="U63" s="4">
+        <v>0</v>
+      </c>
+      <c r="V63" s="4">
+        <v>0</v>
+      </c>
+      <c r="W63" s="4">
+        <v>1</v>
+      </c>
+      <c r="X63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="str">
+        <f t="shared" ref="A64:C64" si="31">A63</f>
+        <v>MEN</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="31"/>
+        <v>10110000</v>
+      </c>
+      <c r="C64" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <v>1</v>
+      </c>
+      <c r="P64" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0</v>
+      </c>
+      <c r="R64" s="2">
+        <v>1</v>
+      </c>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2">
+        <v>1</v>
+      </c>
+      <c r="U64" s="2">
+        <v>0</v>
+      </c>
+      <c r="V64" s="2">
+        <v>0</v>
+      </c>
+      <c r="W64" s="2">
+        <v>1</v>
+      </c>
+      <c r="X64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="str">
+        <f t="shared" ref="A65:C65" si="32">A64</f>
+        <v>MEN</v>
+      </c>
+      <c r="B65" s="4">
+        <f t="shared" si="32"/>
+        <v>10110000</v>
+      </c>
+      <c r="C65" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D65" s="4">
+        <v>4</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
+      </c>
+      <c r="L65" s="4">
+        <v>1</v>
+      </c>
+      <c r="M65" s="4">
+        <v>0</v>
+      </c>
+      <c r="N65" s="4">
+        <v>1</v>
+      </c>
+      <c r="O65" s="4">
+        <v>1</v>
+      </c>
+      <c r="P65" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>0</v>
+      </c>
+      <c r="R65" s="4">
+        <v>1</v>
+      </c>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4">
+        <v>1</v>
+      </c>
+      <c r="U65" s="4">
+        <v>0</v>
+      </c>
+      <c r="V65" s="4">
+        <v>0</v>
+      </c>
+      <c r="W65" s="4">
+        <v>1</v>
+      </c>
+      <c r="X65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="str">
+        <f t="shared" ref="A66:C68" si="33">A65</f>
+        <v>MEN</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="33"/>
+        <v>10110000</v>
+      </c>
+      <c r="C66" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D66" s="2">
+        <v>5</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0</v>
+      </c>
+      <c r="N66" s="2">
+        <v>1</v>
+      </c>
+      <c r="O66" s="2">
+        <v>1</v>
+      </c>
+      <c r="P66" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>0</v>
+      </c>
+      <c r="R66" s="2">
+        <v>0</v>
+      </c>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2">
+        <v>1</v>
+      </c>
+      <c r="U66" s="2">
+        <v>0</v>
+      </c>
+      <c r="V66" s="2">
+        <v>0</v>
+      </c>
+      <c r="W66" s="2">
+        <v>0</v>
+      </c>
+      <c r="X66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>MEN</v>
+      </c>
+      <c r="B67" s="4">
+        <f t="shared" si="33"/>
+        <v>10110000</v>
+      </c>
+      <c r="C67" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D67" s="4">
+        <v>6</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4">
+        <v>1</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0</v>
+      </c>
+      <c r="N67" s="4">
+        <v>1</v>
+      </c>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>0</v>
+      </c>
+      <c r="R67" s="4">
+        <v>0</v>
+      </c>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4">
+        <v>1</v>
+      </c>
+      <c r="U67" s="4">
+        <v>0</v>
+      </c>
+      <c r="V67" s="4">
+        <v>0</v>
+      </c>
+      <c r="W67" s="4">
+        <v>0</v>
+      </c>
+      <c r="X67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>MEN</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="33"/>
+        <v>10110000</v>
+      </c>
+      <c r="C68" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D68" s="2">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2">
+        <v>1</v>
+      </c>
+      <c r="O68" s="2">
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>0</v>
+      </c>
+      <c r="R68" s="2">
+        <v>0</v>
+      </c>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2">
+        <v>1</v>
+      </c>
+      <c r="U68" s="2">
+        <v>0</v>
+      </c>
+      <c r="V68" s="2">
+        <v>0</v>
+      </c>
+      <c r="W68" s="2">
+        <v>0</v>
+      </c>
+      <c r="X68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X70" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y70" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA70" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="4">
+        <v>10110010</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+      <c r="L71" s="4">
+        <v>1</v>
+      </c>
+      <c r="M71" s="4">
+        <v>1</v>
+      </c>
+      <c r="N71" s="4">
+        <v>1</v>
+      </c>
+      <c r="O71" s="4">
+        <v>1</v>
+      </c>
+      <c r="P71" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>0</v>
+      </c>
+      <c r="R71" s="4">
+        <v>1</v>
+      </c>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4">
+        <v>1</v>
+      </c>
+      <c r="U71" s="4">
+        <v>0</v>
+      </c>
+      <c r="V71" s="4">
+        <v>0</v>
+      </c>
+      <c r="W71" s="4">
+        <v>1</v>
+      </c>
+      <c r="X71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="str">
+        <f>A71</f>
+        <v>STK</v>
+      </c>
+      <c r="B72" s="2">
+        <f>B71</f>
+        <v>10110010</v>
+      </c>
+      <c r="C72" s="2" t="str">
+        <f>C71</f>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2">
+        <v>1</v>
+      </c>
+      <c r="N72" s="2">
+        <v>0</v>
+      </c>
+      <c r="O72" s="2">
+        <v>1</v>
+      </c>
+      <c r="P72" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>0</v>
+      </c>
+      <c r="R72" s="2">
+        <v>1</v>
+      </c>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2">
+        <v>1</v>
+      </c>
+      <c r="U72" s="2">
+        <v>0</v>
+      </c>
+      <c r="V72" s="2">
+        <v>0</v>
+      </c>
+      <c r="W72" s="2">
+        <v>1</v>
+      </c>
+      <c r="X72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="str">
+        <f t="shared" ref="A73:C73" si="34">A72</f>
+        <v>STK</v>
+      </c>
+      <c r="B73" s="4">
+        <f t="shared" si="34"/>
+        <v>10110010</v>
+      </c>
+      <c r="C73" s="4" t="str">
+        <f t="shared" si="34"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="N73" s="4">
+        <v>0</v>
+      </c>
+      <c r="O73" s="4">
+        <v>1</v>
+      </c>
+      <c r="P73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>0</v>
+      </c>
+      <c r="R73" s="4">
+        <v>1</v>
+      </c>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4">
+        <v>1</v>
+      </c>
+      <c r="U73" s="4">
+        <v>0</v>
+      </c>
+      <c r="V73" s="4">
+        <v>0</v>
+      </c>
+      <c r="W73" s="4">
+        <v>1</v>
+      </c>
+      <c r="X73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="str">
+        <f t="shared" ref="A74:C74" si="35">A73</f>
+        <v>STK</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="35"/>
+        <v>10110010</v>
+      </c>
+      <c r="C74" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74" s="2">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2">
+        <v>1</v>
+      </c>
+      <c r="P74" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>0</v>
+      </c>
+      <c r="R74" s="2">
+        <v>1</v>
+      </c>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2">
+        <v>1</v>
+      </c>
+      <c r="U74" s="2">
+        <v>0</v>
+      </c>
+      <c r="V74" s="2">
+        <v>0</v>
+      </c>
+      <c r="W74" s="2">
+        <v>1</v>
+      </c>
+      <c r="X74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="str">
+        <f t="shared" ref="A75:C75" si="36">A74</f>
+        <v>STK</v>
+      </c>
+      <c r="B75" s="4">
+        <f t="shared" si="36"/>
+        <v>10110010</v>
+      </c>
+      <c r="C75" s="4" t="str">
+        <f t="shared" si="36"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D75" s="4">
+        <v>4</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1</v>
+      </c>
+      <c r="M75" s="4">
+        <v>0</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1</v>
+      </c>
+      <c r="O75" s="4">
+        <v>1</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>0</v>
+      </c>
+      <c r="R75" s="4">
+        <v>1</v>
+      </c>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4">
+        <v>1</v>
+      </c>
+      <c r="U75" s="4">
+        <v>0</v>
+      </c>
+      <c r="V75" s="4">
+        <v>0</v>
+      </c>
+      <c r="W75" s="4">
+        <v>1</v>
+      </c>
+      <c r="X75" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="str">
+        <f t="shared" ref="A76:C76" si="37">A75</f>
+        <v>STK</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="37"/>
+        <v>10110010</v>
+      </c>
+      <c r="C76" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2">
+        <v>1</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0</v>
+      </c>
+      <c r="N76" s="2">
+        <v>1</v>
+      </c>
+      <c r="O76" s="2">
+        <v>1</v>
+      </c>
+      <c r="P76" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>0</v>
+      </c>
+      <c r="R76" s="2">
+        <v>1</v>
+      </c>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2">
+        <v>0</v>
+      </c>
+      <c r="U76" s="2">
+        <v>0</v>
+      </c>
+      <c r="V76" s="2">
+        <v>0</v>
+      </c>
+      <c r="W76" s="2">
+        <v>0</v>
+      </c>
+      <c r="X76" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="str">
+        <f t="shared" ref="A77:C77" si="38">A76</f>
+        <v>STK</v>
+      </c>
+      <c r="B77" s="4">
+        <f t="shared" si="38"/>
+        <v>10110010</v>
+      </c>
+      <c r="C77" s="4" t="str">
+        <f t="shared" si="38"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D77" s="4">
+        <v>6</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K77" s="4">
+        <v>0</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
+      <c r="M77" s="4">
+        <v>0</v>
+      </c>
+      <c r="N77" s="4">
+        <v>1</v>
+      </c>
+      <c r="O77" s="4">
+        <v>0</v>
+      </c>
+      <c r="P77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>0</v>
+      </c>
+      <c r="R77" s="4">
+        <v>1</v>
+      </c>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4">
+        <v>0</v>
+      </c>
+      <c r="U77" s="4">
+        <v>0</v>
+      </c>
+      <c r="V77" s="4">
+        <v>0</v>
+      </c>
+      <c r="W77" s="4">
+        <v>0</v>
+      </c>
+      <c r="X77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="str">
+        <f t="shared" ref="A78:C78" si="39">A77</f>
+        <v>STK</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="39"/>
+        <v>10110010</v>
+      </c>
+      <c r="C78" s="2" t="str">
+        <f t="shared" si="39"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D78" s="2">
+        <v>7</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2">
+        <v>1</v>
+      </c>
+      <c r="M78" s="2">
+        <v>0</v>
+      </c>
+      <c r="N78" s="2">
+        <v>1</v>
+      </c>
+      <c r="O78" s="2">
+        <v>1</v>
+      </c>
+      <c r="P78" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>0</v>
+      </c>
+      <c r="R78" s="2">
+        <v>1</v>
+      </c>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2">
+        <v>0</v>
+      </c>
+      <c r="U78" s="2">
+        <v>1</v>
+      </c>
+      <c r="V78" s="2">
+        <v>0</v>
+      </c>
+      <c r="W78" s="2">
+        <v>0</v>
+      </c>
+      <c r="X78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P79" s="9"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA80" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="4">
+        <v>10110010</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0</v>
+      </c>
+      <c r="L81" s="4">
+        <v>1</v>
+      </c>
+      <c r="M81" s="4">
+        <v>1</v>
+      </c>
+      <c r="N81" s="4">
+        <v>1</v>
+      </c>
+      <c r="O81" s="4">
+        <v>1</v>
+      </c>
+      <c r="P81" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>0</v>
+      </c>
+      <c r="R81" s="4">
+        <v>1</v>
+      </c>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4">
+        <v>1</v>
+      </c>
+      <c r="U81" s="4">
+        <v>0</v>
+      </c>
+      <c r="V81" s="4">
+        <v>0</v>
+      </c>
+      <c r="W81" s="4">
+        <v>1</v>
+      </c>
+      <c r="X81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA81" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="str">
+        <f>A81</f>
+        <v>LDM</v>
+      </c>
+      <c r="B82" s="2">
+        <f>B81</f>
+        <v>10110010</v>
+      </c>
+      <c r="C82" s="2" t="str">
+        <f>C81</f>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
+        <v>1</v>
+      </c>
+      <c r="N82" s="2">
+        <v>0</v>
+      </c>
+      <c r="O82" s="2">
+        <v>1</v>
+      </c>
+      <c r="P82" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>0</v>
+      </c>
+      <c r="R82" s="2">
+        <v>1</v>
+      </c>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2">
+        <v>1</v>
+      </c>
+      <c r="U82" s="2">
+        <v>0</v>
+      </c>
+      <c r="V82" s="2">
+        <v>0</v>
+      </c>
+      <c r="W82" s="2">
+        <v>1</v>
+      </c>
+      <c r="X82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="str">
+        <f t="shared" ref="A83:C83" si="40">A82</f>
+        <v>LDM</v>
+      </c>
+      <c r="B83" s="4">
+        <f t="shared" si="40"/>
+        <v>10110010</v>
+      </c>
+      <c r="C83" s="4" t="str">
+        <f t="shared" si="40"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4">
+        <v>0</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0</v>
+      </c>
+      <c r="L83" s="4">
+        <v>0</v>
+      </c>
+      <c r="M83" s="4">
+        <v>0</v>
+      </c>
+      <c r="N83" s="4">
+        <v>0</v>
+      </c>
+      <c r="O83" s="4">
+        <v>1</v>
+      </c>
+      <c r="P83" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>0</v>
+      </c>
+      <c r="R83" s="4">
+        <v>1</v>
+      </c>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4">
+        <v>1</v>
+      </c>
+      <c r="U83" s="4">
+        <v>0</v>
+      </c>
+      <c r="V83" s="4">
+        <v>0</v>
+      </c>
+      <c r="W83" s="4">
+        <v>1</v>
+      </c>
+      <c r="X83" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA83" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="str">
+        <f t="shared" ref="A84:C84" si="41">A83</f>
+        <v>LDM</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="41"/>
+        <v>10110010</v>
+      </c>
+      <c r="C84" s="2" t="str">
+        <f t="shared" si="41"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D84" s="2">
+        <v>3</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
+        <v>0</v>
+      </c>
+      <c r="N84" s="2">
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
+        <v>1</v>
+      </c>
+      <c r="P84" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>0</v>
+      </c>
+      <c r="R84" s="2">
+        <v>1</v>
+      </c>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2">
+        <v>1</v>
+      </c>
+      <c r="U84" s="2">
+        <v>0</v>
+      </c>
+      <c r="V84" s="2">
+        <v>0</v>
+      </c>
+      <c r="W84" s="2">
+        <v>1</v>
+      </c>
+      <c r="X84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="str">
+        <f t="shared" ref="A85:C85" si="42">A84</f>
+        <v>LDM</v>
+      </c>
+      <c r="B85" s="4">
+        <f t="shared" si="42"/>
+        <v>10110010</v>
+      </c>
+      <c r="C85" s="4" t="str">
+        <f t="shared" si="42"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D85" s="4">
+        <v>4</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
+        <v>0</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <v>1</v>
+      </c>
+      <c r="M85" s="4">
+        <v>0</v>
+      </c>
+      <c r="N85" s="4">
+        <v>1</v>
+      </c>
+      <c r="O85" s="4">
+        <v>1</v>
+      </c>
+      <c r="P85" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>0</v>
+      </c>
+      <c r="R85" s="4">
+        <v>1</v>
+      </c>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4">
+        <v>1</v>
+      </c>
+      <c r="U85" s="4">
+        <v>0</v>
+      </c>
+      <c r="V85" s="4">
+        <v>0</v>
+      </c>
+      <c r="W85" s="4">
+        <v>1</v>
+      </c>
+      <c r="X85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="str">
+        <f t="shared" ref="A86:C86" si="43">A85</f>
+        <v>LDM</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="43"/>
+        <v>10110010</v>
+      </c>
+      <c r="C86" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D86" s="2">
+        <v>5</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1</v>
+      </c>
+      <c r="M86" s="2">
+        <v>0</v>
+      </c>
+      <c r="N86" s="2">
+        <v>1</v>
+      </c>
+      <c r="O86" s="2">
+        <v>1</v>
+      </c>
+      <c r="P86" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>0</v>
+      </c>
+      <c r="R86" s="2">
+        <v>1</v>
+      </c>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2">
+        <v>1</v>
+      </c>
+      <c r="U86" s="2">
+        <v>0</v>
+      </c>
+      <c r="V86" s="2">
+        <v>0</v>
+      </c>
+      <c r="W86" s="2">
+        <v>0</v>
+      </c>
+      <c r="X86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="str">
+        <f t="shared" ref="A87:C87" si="44">A86</f>
+        <v>LDM</v>
+      </c>
+      <c r="B87" s="4">
+        <f t="shared" si="44"/>
+        <v>10110010</v>
+      </c>
+      <c r="C87" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D87" s="4">
+        <v>6</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4">
+        <v>0</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0</v>
+      </c>
+      <c r="L87" s="4">
+        <v>1</v>
+      </c>
+      <c r="M87" s="4">
+        <v>0</v>
+      </c>
+      <c r="N87" s="4">
+        <v>1</v>
+      </c>
+      <c r="O87" s="4">
+        <v>1</v>
+      </c>
+      <c r="P87" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>0</v>
+      </c>
+      <c r="R87" s="4">
+        <v>1</v>
+      </c>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4">
+        <v>1</v>
+      </c>
+      <c r="U87" s="4">
+        <v>0</v>
+      </c>
+      <c r="V87" s="4">
+        <v>0</v>
+      </c>
+      <c r="W87" s="4">
+        <v>0</v>
+      </c>
+      <c r="X87" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA87" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="str">
+        <f t="shared" ref="A88:C88" si="45">A87</f>
+        <v>LDM</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="45"/>
+        <v>10110010</v>
+      </c>
+      <c r="C88" s="2" t="str">
+        <f t="shared" si="45"/>
+        <v>XXXXXXXX</v>
+      </c>
+      <c r="D88" s="2">
+        <v>7</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K88" s="2">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <v>1</v>
+      </c>
+      <c r="M88" s="2">
+        <v>0</v>
+      </c>
+      <c r="N88" s="2">
+        <v>1</v>
+      </c>
+      <c r="O88" s="2">
+        <v>1</v>
+      </c>
+      <c r="P88" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>0</v>
+      </c>
+      <c r="R88" s="2">
+        <v>1</v>
+      </c>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2">
+        <v>1</v>
+      </c>
+      <c r="U88" s="2">
+        <v>0</v>
+      </c>
+      <c r="V88" s="2">
+        <v>0</v>
+      </c>
+      <c r="W88" s="2">
+        <v>0</v>
+      </c>
+      <c r="X88" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X90" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y90" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z90" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA90" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="4">
+        <v>10110010</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0</v>
+      </c>
+      <c r="G91" s="4">
+        <v>0</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K91" s="4">
+        <v>0</v>
+      </c>
+      <c r="L91" s="4">
+        <v>1</v>
+      </c>
+      <c r="M91" s="4">
+        <v>1</v>
+      </c>
+      <c r="N91" s="4">
+        <v>1</v>
+      </c>
+      <c r="O91" s="4">
+        <v>1</v>
+      </c>
+      <c r="P91" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>0</v>
+      </c>
+      <c r="R91" s="4">
+        <v>1</v>
+      </c>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4">
+        <v>1</v>
+      </c>
+      <c r="U91" s="4">
+        <v>0</v>
+      </c>
+      <c r="V91" s="4">
+        <v>0</v>
+      </c>
+      <c r="W91" s="4">
+        <v>1</v>
+      </c>
+      <c r="X91" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="str">
+        <f>A91</f>
+        <v>LDC</v>
+      </c>
+      <c r="B92" s="2">
+        <f>B91</f>
+        <v>10110010</v>
+      </c>
+      <c r="C92" s="2" t="str">
+        <f>C91</f>
+        <v>11111110</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2">
+        <v>1</v>
+      </c>
+      <c r="N92" s="2">
+        <v>0</v>
+      </c>
+      <c r="O92" s="2">
+        <v>1</v>
+      </c>
+      <c r="P92" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>0</v>
+      </c>
+      <c r="R92" s="2">
+        <v>1</v>
+      </c>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2">
+        <v>1</v>
+      </c>
+      <c r="U92" s="2">
+        <v>0</v>
+      </c>
+      <c r="V92" s="2">
+        <v>0</v>
+      </c>
+      <c r="W92" s="2">
+        <v>1</v>
+      </c>
+      <c r="X92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="str">
+        <f t="shared" ref="A93:C93" si="46">A92</f>
+        <v>LDC</v>
+      </c>
+      <c r="B93" s="4">
+        <f t="shared" si="46"/>
+        <v>10110010</v>
+      </c>
+      <c r="C93" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>11111110</v>
+      </c>
+      <c r="D93" s="4">
+        <v>2</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K93" s="4">
+        <v>0</v>
+      </c>
+      <c r="L93" s="4">
+        <v>0</v>
+      </c>
+      <c r="M93" s="4">
+        <v>0</v>
+      </c>
+      <c r="N93" s="4">
+        <v>0</v>
+      </c>
+      <c r="O93" s="4">
+        <v>1</v>
+      </c>
+      <c r="P93" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>0</v>
+      </c>
+      <c r="R93" s="4">
+        <v>1</v>
+      </c>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4">
+        <v>1</v>
+      </c>
+      <c r="U93" s="4">
+        <v>0</v>
+      </c>
+      <c r="V93" s="4">
+        <v>0</v>
+      </c>
+      <c r="W93" s="4">
+        <v>1</v>
+      </c>
+      <c r="X93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="str">
+        <f t="shared" ref="A94:C94" si="47">A93</f>
+        <v>LDC</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="47"/>
+        <v>10110010</v>
+      </c>
+      <c r="C94" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v>11111110</v>
+      </c>
+      <c r="D94" s="2">
+        <v>3</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K94" s="2">
+        <v>1</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2">
+        <v>0</v>
+      </c>
+      <c r="O94" s="2">
+        <v>1</v>
+      </c>
+      <c r="P94" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>0</v>
+      </c>
+      <c r="R94" s="2">
+        <v>1</v>
+      </c>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2">
+        <v>1</v>
+      </c>
+      <c r="U94" s="2">
+        <v>0</v>
+      </c>
+      <c r="V94" s="2">
+        <v>0</v>
+      </c>
+      <c r="W94" s="2">
+        <v>1</v>
+      </c>
+      <c r="X94" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="str">
+        <f t="shared" ref="A95:C95" si="48">A94</f>
+        <v>LDC</v>
+      </c>
+      <c r="B95" s="4">
+        <f t="shared" si="48"/>
+        <v>10110010</v>
+      </c>
+      <c r="C95" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>11111110</v>
+      </c>
+      <c r="D95" s="4">
+        <v>4</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>0</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K95" s="4">
+        <v>0</v>
+      </c>
+      <c r="L95" s="4">
+        <v>1</v>
+      </c>
+      <c r="M95" s="4">
+        <v>0</v>
+      </c>
+      <c r="N95" s="4">
+        <v>1</v>
+      </c>
+      <c r="O95" s="4">
+        <v>1</v>
+      </c>
+      <c r="P95" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>0</v>
+      </c>
+      <c r="R95" s="4">
+        <v>1</v>
+      </c>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4">
+        <v>1</v>
+      </c>
+      <c r="U95" s="4">
+        <v>0</v>
+      </c>
+      <c r="V95" s="4">
+        <v>0</v>
+      </c>
+      <c r="W95" s="4">
+        <v>1</v>
+      </c>
+      <c r="X95" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="str">
+        <f t="shared" ref="A96:C96" si="49">A95</f>
+        <v>LDC</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="49"/>
+        <v>10110010</v>
+      </c>
+      <c r="C96" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>11111110</v>
+      </c>
+      <c r="D96" s="2">
+        <v>5</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2">
+        <v>1</v>
+      </c>
+      <c r="M96" s="2">
+        <v>0</v>
+      </c>
+      <c r="N96" s="2">
+        <v>1</v>
+      </c>
+      <c r="O96" s="2">
+        <v>1</v>
+      </c>
+      <c r="P96" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>0</v>
+      </c>
+      <c r="R96" s="2">
+        <v>1</v>
+      </c>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2">
+        <v>1</v>
+      </c>
+      <c r="U96" s="2">
+        <v>0</v>
+      </c>
+      <c r="V96" s="2">
+        <v>0</v>
+      </c>
+      <c r="W96" s="2">
+        <v>1</v>
+      </c>
+      <c r="X96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="str">
+        <f t="shared" ref="A97:C97" si="50">A96</f>
+        <v>LDC</v>
+      </c>
+      <c r="B97" s="4">
+        <f t="shared" si="50"/>
+        <v>10110010</v>
+      </c>
+      <c r="C97" s="4" t="str">
+        <f t="shared" si="50"/>
+        <v>11111110</v>
+      </c>
+      <c r="D97" s="4">
+        <v>6</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4">
+        <v>0</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K97" s="4">
+        <v>0</v>
+      </c>
+      <c r="L97" s="4">
+        <v>1</v>
+      </c>
+      <c r="M97" s="4">
+        <v>0</v>
+      </c>
+      <c r="N97" s="4">
+        <v>1</v>
+      </c>
+      <c r="O97" s="4">
+        <v>1</v>
+      </c>
+      <c r="P97" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>0</v>
+      </c>
+      <c r="R97" s="4">
+        <v>1</v>
+      </c>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4">
+        <v>1</v>
+      </c>
+      <c r="U97" s="4">
+        <v>0</v>
+      </c>
+      <c r="V97" s="4">
+        <v>0</v>
+      </c>
+      <c r="W97" s="4">
+        <v>1</v>
+      </c>
+      <c r="X97" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA97" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="str">
+        <f t="shared" ref="A98:C98" si="51">A97</f>
+        <v>LDC</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="51"/>
+        <v>10110010</v>
+      </c>
+      <c r="C98" s="2" t="str">
+        <f t="shared" si="51"/>
+        <v>11111110</v>
+      </c>
+      <c r="D98" s="2">
+        <v>7</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K98" s="2">
+        <v>0</v>
+      </c>
+      <c r="L98" s="2">
+        <v>1</v>
+      </c>
+      <c r="M98" s="2">
+        <v>0</v>
+      </c>
+      <c r="N98" s="2">
+        <v>1</v>
+      </c>
+      <c r="O98" s="2">
+        <v>1</v>
+      </c>
+      <c r="P98" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>0</v>
+      </c>
+      <c r="R98" s="2">
+        <v>1</v>
+      </c>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2">
+        <v>1</v>
+      </c>
+      <c r="U98" s="2">
+        <v>0</v>
+      </c>
+      <c r="V98" s="2">
+        <v>0</v>
+      </c>
+      <c r="W98" s="2">
+        <v>1</v>
+      </c>
+      <c r="X98" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA98" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:J1">
-    <cfRule type="colorScale" priority="188">
+    <cfRule type="colorScale" priority="215">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5119,7 +8232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="colorScale" priority="187">
+    <cfRule type="colorScale" priority="214">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5129,7 +8242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2 E2:G10 J2:J10">
-    <cfRule type="colorScale" priority="314">
+    <cfRule type="colorScale" priority="341">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5139,7 +8252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I10">
-    <cfRule type="colorScale" priority="317">
+    <cfRule type="colorScale" priority="344">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5148,8 +8261,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:AA1 K2:R10 T2:AA10">
-    <cfRule type="colorScale" priority="318">
+  <conditionalFormatting sqref="K1:AA1 K2:R2 T2:AA10 K3:M10 O3:R10">
+    <cfRule type="colorScale" priority="345">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5159,6 +8272,286 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:I12 E12:G20 J12:J20">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:I20">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:R12 T12:AA20 O13:R20">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:I22 E22:G30 J22:J30">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:I30">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:R22 T22:AA30 O23:R30">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J39">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:I39">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32:R39 T32:AA39">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:H30">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:G39">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H39">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:H39">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:I41 E41:G49 J41:J49">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:I41 I42:I49">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:R41 T41:AA49 O42:R49">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:J58">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:I58">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O51:R58 T51:AA58">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:G49">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:G58">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:H58">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:H58">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:H49">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:H49">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:I58">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60:I60 E60:G68 J60:J68">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60:I68">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60:R60 T60:AA68 N61:R68">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -5168,27 +8561,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:I20">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:R20 T12:AA20">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:I22 E22:G30 J22:J30">
+  <conditionalFormatting sqref="K13:M20">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -5198,8 +8571,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:I30">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="K23:M30">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5208,8 +8581,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:R30 T22:AA30">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="K32:M39">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5218,7 +8591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J39">
+  <conditionalFormatting sqref="K42:M49">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5228,27 +8601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I39">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:R39 T32:AA39">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:H30">
+  <conditionalFormatting sqref="K51:M58">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5258,7 +8611,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:G39">
+  <conditionalFormatting sqref="K61:M68">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N51:N58">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5268,17 +8631,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H39">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:H39">
+  <conditionalFormatting sqref="N42:N49">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5288,7 +8641,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:I41 E41:G49 J41:J49">
+  <conditionalFormatting sqref="N32:N39">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23:N30">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:N20">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5298,8 +8671,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:I41 I42:I49">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="N3:N10">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5308,8 +8681,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:R49 T41:AA49">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="H70:I70 E70:G78 J70:J78">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5318,7 +8691,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51:J58">
+  <conditionalFormatting sqref="H70:I78">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5328,7 +8701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:I58">
+  <conditionalFormatting sqref="K70:R70 T70:AA78 N71:R78 P79">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5338,8 +8711,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:R58 T51:AA58">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="K71:M78">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5348,8 +8721,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:G49">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="H80:I80 E80:G88 J80:J88">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5358,7 +8731,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51:G58">
+  <conditionalFormatting sqref="H80:I88">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K80:R80 T80:AA88 N81:R88">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5368,37 +8751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H58">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:H58">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:H49">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:H49">
+  <conditionalFormatting sqref="K81:M88">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5408,7 +8761,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:I58">
+  <conditionalFormatting sqref="H90:I90 E90:G98 J90:J98">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90:I98">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K90:R90 T90:AA98 N91:R98">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5418,9 +8791,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K91:M98">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA76BE6D-EB09-4298-917D-A6A56B2F0E23}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>